--- a/Sprint 3. Reiseinformationen und Tariflogik/Sprint 3 Testfälle.xlsx
+++ b/Sprint 3. Reiseinformationen und Tariflogik/Sprint 3 Testfälle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UserS2025\Documents\_US_FIDP\AnwP-UML-OOP\U-Bahn-Projekt 2.0\Project Owner Idee\Abnahmeprotokolle\Sprint 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A648DF1B-6A61-4ED1-9209-7B2B1FD7EFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2E94A6-3EC7-46AF-B252-B630EDCF5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A37D4191-95FB-465B-9C67-3ABB959950CF}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{A37D4191-95FB-465B-9C67-3ABB959950CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Eingabeverarbeitung" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="95">
   <si>
     <t>Test-ID</t>
   </si>
@@ -235,12 +235,6 @@
     <t>Station existiert nicht auf U1</t>
   </si>
   <si>
-    <t>1️⃣ Kurzticket (1–3 Stationen)</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
     <t>Start</t>
   </si>
   <si>
@@ -259,9 +253,6 @@
     <t>Erwarteter Preis</t>
   </si>
   <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>Langwasser Mitte</t>
   </si>
   <si>
@@ -274,94 +265,34 @@
     <t>Karte</t>
   </si>
   <si>
-    <t>K2</t>
-  </si>
-  <si>
     <t>Bar</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>ja</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>Mehrfahrt</t>
   </si>
   <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K7</t>
-  </si>
-  <si>
-    <t>K8</t>
-  </si>
-  <si>
-    <t>2️⃣ Mittelticket (4–8 Stationen)</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>M4</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>M7</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>3️⃣ Langticket (9+ Stationen)</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>L3</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
-  </si>
-  <si>
-    <t>L7</t>
-  </si>
-  <si>
-    <t>L8</t>
-  </si>
-  <si>
     <t>Ausgabe korrekt?</t>
   </si>
   <si>
     <t>Berechnung auf Sekunde genau korrekt?</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>Strecke</t>
+  </si>
+  <si>
+    <t>kurz</t>
+  </si>
+  <si>
+    <t>mittel</t>
+  </si>
+  <si>
+    <t>lang</t>
   </si>
   <si>
     <r>
@@ -370,7 +301,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -386,7 +317,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -402,7 +333,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -418,7 +349,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -434,7 +365,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -450,7 +381,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -466,7 +397,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -482,7 +413,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -498,7 +429,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -508,7 +439,7 @@
     </r>
   </si>
   <si>
-    <t>f</t>
+    <t>Nr.</t>
   </si>
 </sst>
 </file>
@@ -518,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,25 +479,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Arial Unicode MS"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
@@ -581,6 +493,32 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -629,50 +567,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -680,11 +605,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,253 +958,253 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="F21:G21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="25.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30">
-      <c r="A1" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:6" ht="31.5">
+      <c r="A1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A2" s="14">
+      <c r="F1" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" customHeight="1">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A3" s="14">
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" ht="24" customHeight="1">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="A4" s="14">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="14">
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="14">
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="14">
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="D7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="F7" s="15"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="14">
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="14">
+      <c r="F9" s="15"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="14">
+      <c r="F10" s="15"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="14">
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="14">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1281,16 +1216,20 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="78.75">
+    <row r="1" spans="1:10" ht="63">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1312,155 +1251,155 @@
       <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="47.25">
-      <c r="A2" s="3">
+      <c r="I1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="24" customHeight="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="9">
         <v>0.1875</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <v>0.24965277777777778</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="3">
         <v>0.25</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" spans="1:10" ht="47.25">
-      <c r="A3" s="3">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" ht="24" customHeight="1">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="9">
         <v>0.3347222222222222</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="10">
         <v>0.34583333333333333</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="3">
         <v>0.34583333333333333</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" ht="31.5">
-      <c r="A4" s="3">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="24" customHeight="1">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="9">
         <v>0.23958333333333334</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="10">
         <v>0.25416666666666665</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="3">
         <v>0.25416666666666665</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" ht="31.5">
-      <c r="A5" s="3">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" ht="24" customHeight="1">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="9">
         <v>0.3576388888888889</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="10">
         <v>0.35868055555555556</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="3">
         <v>0.35902777777777778</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="31.5">
-      <c r="A6" s="3">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="24" customHeight="1">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="9">
         <v>0.98333333333333328</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="10">
         <v>0.99131944444444442</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="3">
         <v>0.9916666666666667</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1469,682 +1408,719 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5125F244-0275-492C-B203-68826749737B}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I1" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="11" t="s">
+      <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="H2" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="4">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="H3" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="4">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.32</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="19">
-        <v>1.65</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="30">
-      <c r="A5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="F6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H7" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="30">
+      <c r="A8" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1.9</v>
-      </c>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="G8" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="H8" s="5">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="H9" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" ht="30">
+      <c r="A11" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.76</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" ht="30">
+      <c r="A13" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2.02</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" ht="30">
+      <c r="A14" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="19">
-        <v>1.32</v>
-      </c>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="F14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="H14" s="5">
+        <v>7</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" ht="30">
+      <c r="A15" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1.52</v>
-      </c>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="11" t="s">
+      <c r="H15" s="5">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="30">
+      <c r="A16" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="H16" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="30">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="5">
+        <v>6.44</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="30">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="30">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3.79</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" ht="30">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2.64</v>
+      </c>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="30">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="5">
+        <v>3.04</v>
+      </c>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="30">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="19">
-        <v>5</v>
-      </c>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="30">
-      <c r="A9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="F22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" ht="30">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="30">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="19">
-        <v>5.75</v>
-      </c>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="30">
-      <c r="A10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="G24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H24" s="5">
+        <v>8</v>
+      </c>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="19">
-        <v>4</v>
-      </c>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="30">
-      <c r="A11" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="14" spans="1:8" ht="24">
-      <c r="A14" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30">
-      <c r="A17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="F25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="19">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="30">
-      <c r="A18" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" ht="30">
-      <c r="A19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1.76</v>
-      </c>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2.02</v>
-      </c>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" ht="30">
-      <c r="A21" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="19">
-        <v>7</v>
-      </c>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" ht="30">
-      <c r="A22" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="19">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" ht="30">
-      <c r="A23" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" ht="30">
-      <c r="A24" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" s="19">
-        <v>6.44</v>
-      </c>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="27" spans="1:8" ht="24">
-      <c r="A27" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30">
-      <c r="A32" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="19">
-        <v>3.3</v>
-      </c>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" ht="30">
-      <c r="A33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G33" s="19">
-        <v>3.79</v>
-      </c>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" ht="30">
-      <c r="A34" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G34" s="19">
-        <v>2.64</v>
-      </c>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" ht="30">
-      <c r="A35" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G35" s="19">
-        <v>3.04</v>
-      </c>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" ht="30">
-      <c r="A36" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G36" s="19">
-        <v>10</v>
-      </c>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" ht="30">
-      <c r="A37" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="19">
-        <v>11.5</v>
-      </c>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:8" ht="30">
-      <c r="A38" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G38" s="19">
-        <v>8</v>
-      </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" ht="30">
-      <c r="A39" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="19">
+      <c r="H25" s="5">
         <v>9.5</v>
       </c>
-      <c r="H39" s="7"/>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2152,6 +2128,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1f75307b-fc7a-4ba9-a4a3-e47be88b035e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010088F61395E2AA6C4FB7FAF5F243D7F55E" ma:contentTypeVersion="9" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6290012f2776a30c64ce81af28d6947c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1f75307b-fc7a-4ba9-a4a3-e47be88b035e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ccd37a6157d1065e47b9761c6600d1f0" ns3:_="">
     <xsd:import namespace="1f75307b-fc7a-4ba9-a4a3-e47be88b035e"/>
@@ -2327,24 +2320,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA93809-229D-4269-83DA-C98838C9FA1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="1f75307b-fc7a-4ba9-a4a3-e47be88b035e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1f75307b-fc7a-4ba9-a4a3-e47be88b035e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3287290B-414D-47E7-902F-A0B9E0A3D009}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49ED88C5-5088-4E3B-940A-C3A0A526CFB9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2360,28 +2360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3287290B-414D-47E7-902F-A0B9E0A3D009}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA93809-229D-4269-83DA-C98838C9FA1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="1f75307b-fc7a-4ba9-a4a3-e47be88b035e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>